--- a/data/originais/curetagem/consolidado/curetagem2018.xlsx
+++ b/data/originais/curetagem/consolidado/curetagem2018.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Google Drive\Aulas\Enap\EstatisticaDescritiva2018\dados\curetagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\PycharmProjects\curso_ciencia_dados2021\data\originais\curetagem\consolidado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{3698B0CB-3019-4C75-9D2C-EBA1C172E7DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7DA7D3-04B1-4CDD-BE1A-FCB03E6A785F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A193AF00-70B1-4475-B2D2-6701FD362125}"/>
+    <workbookView xWindow="-34740" yWindow="-4515" windowWidth="28815" windowHeight="15555" xr2:uid="{A193AF00-70B1-4475-B2D2-6701FD362125}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="curetagem_1" localSheetId="0">Planilha1!$A$1:$DX$28</definedName>
+    <definedName name="curetagem_1" localSheetId="0">Planilha1!$A$1:$DW$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
   <si>
     <t>2012/Jan</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>2018/Jun</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Unidade da Federação</t>
@@ -5312,7 +5309,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Planilha1!$A$7</c15:sqref>
@@ -5359,7 +5356,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Planilha1!$B$1:$DW$1</c15:sqref>
@@ -5751,7 +5748,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Planilha1!$B$7:$DW$7</c15:sqref>
@@ -6143,7 +6140,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-FEBB-48FC-95F5-9A985847518F}"/>
                   </c:ext>
@@ -6896,7 +6893,7 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>128</xdr:col>
+      <xdr:col>127</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -7228,10 +7225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C4A356-D47A-4454-9301-4854EA50D5AF}">
-  <dimension ref="A1:DX28"/>
+  <dimension ref="A1:DW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DE2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DX1" sqref="DX1:DX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7332,156 +7329,155 @@
     <col min="124" max="124" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="9" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>89</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>92</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>93</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>96</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>97</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>98</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>99</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>100</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>101</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>107</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>108</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>109</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>110</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>111</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>113</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>114</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>115</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>116</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>117</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>118</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>119</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>120</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>121</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>122</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>123</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>124</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>125</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>126</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>127</v>
       </c>
       <c r="AX1" t="s">
         <v>0</v>
@@ -7717,13 +7713,10 @@
       <c r="DW1" t="s">
         <v>77</v>
       </c>
-      <c r="DX1" t="s">
-        <v>78</v>
-      </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>2153</v>
@@ -8103,13 +8096,10 @@
       <c r="DW2">
         <v>2365</v>
       </c>
-      <c r="DX2">
-        <v>359255</v>
-      </c>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>1156</v>
@@ -8489,13 +8479,10 @@
       <c r="DW3">
         <v>1245</v>
       </c>
-      <c r="DX3">
-        <v>204101</v>
-      </c>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>1193</v>
@@ -8875,13 +8862,10 @@
       <c r="DW4">
         <v>1086</v>
       </c>
-      <c r="DX4">
-        <v>182772</v>
-      </c>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>679</v>
@@ -9261,13 +9245,10 @@
       <c r="DW5">
         <v>910</v>
       </c>
-      <c r="DX5">
-        <v>153270</v>
-      </c>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6">
         <v>489</v>
@@ -9647,13 +9628,10 @@
       <c r="DW6">
         <v>666</v>
       </c>
-      <c r="DX6">
-        <v>106303</v>
-      </c>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7">
         <v>731</v>
@@ -10033,13 +10011,10 @@
       <c r="DW7">
         <v>655</v>
       </c>
-      <c r="DX7">
-        <v>104715</v>
-      </c>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <v>599</v>
@@ -10419,13 +10394,10 @@
       <c r="DW8">
         <v>712</v>
       </c>
-      <c r="DX8">
-        <v>91102</v>
-      </c>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -10805,13 +10777,10 @@
       <c r="DW9">
         <v>427</v>
       </c>
-      <c r="DX9">
-        <v>87321</v>
-      </c>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10">
         <v>349</v>
@@ -11191,13 +11160,10 @@
       <c r="DW10">
         <v>487</v>
       </c>
-      <c r="DX10">
-        <v>75791</v>
-      </c>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>434</v>
@@ -11577,13 +11543,10 @@
       <c r="DW11">
         <v>482</v>
       </c>
-      <c r="DX11">
-        <v>75667</v>
-      </c>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>416</v>
@@ -11963,13 +11926,10 @@
       <c r="DW12">
         <v>489</v>
       </c>
-      <c r="DX12">
-        <v>63010</v>
-      </c>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <v>138</v>
@@ -12349,13 +12309,10 @@
       <c r="DW13">
         <v>374</v>
       </c>
-      <c r="DX13">
-        <v>57608</v>
-      </c>
     </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <v>237</v>
@@ -12735,13 +12692,10 @@
       <c r="DW14">
         <v>217</v>
       </c>
-      <c r="DX14">
-        <v>41992</v>
-      </c>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>343</v>
@@ -13121,13 +13075,10 @@
       <c r="DW15">
         <v>227</v>
       </c>
-      <c r="DX15">
-        <v>41892</v>
-      </c>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16">
         <v>209</v>
@@ -13507,13 +13458,10 @@
       <c r="DW16">
         <v>176</v>
       </c>
-      <c r="DX16">
-        <v>41215</v>
-      </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17">
         <v>280</v>
@@ -13893,13 +13841,10 @@
       <c r="DW17">
         <v>239</v>
       </c>
-      <c r="DX17">
-        <v>38035</v>
-      </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B18">
         <v>272</v>
@@ -14279,13 +14224,10 @@
       <c r="DW18">
         <v>178</v>
       </c>
-      <c r="DX18">
-        <v>35103</v>
-      </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19">
         <v>169</v>
@@ -14665,13 +14607,10 @@
       <c r="DW19">
         <v>249</v>
       </c>
-      <c r="DX19">
-        <v>33576</v>
-      </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>193</v>
@@ -15051,13 +14990,10 @@
       <c r="DW20">
         <v>197</v>
       </c>
-      <c r="DX20">
-        <v>31915</v>
-      </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>116</v>
@@ -15437,13 +15373,10 @@
       <c r="DW21">
         <v>200</v>
       </c>
-      <c r="DX21">
-        <v>29644</v>
-      </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22">
         <v>179</v>
@@ -15823,13 +15756,10 @@
       <c r="DW22">
         <v>233</v>
       </c>
-      <c r="DX22">
-        <v>27777</v>
-      </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23">
         <v>222</v>
@@ -16209,13 +16139,10 @@
       <c r="DW23">
         <v>163</v>
       </c>
-      <c r="DX23">
-        <v>23227</v>
-      </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24">
         <v>138</v>
@@ -16595,13 +16522,10 @@
       <c r="DW24">
         <v>1</v>
       </c>
-      <c r="DX24">
-        <v>18427</v>
-      </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25">
         <v>205</v>
@@ -16979,15 +16903,12 @@
         <v>42</v>
       </c>
       <c r="DW25" t="s">
-        <v>130</v>
-      </c>
-      <c r="DX25">
-        <v>16671</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26">
         <v>75</v>
@@ -17367,13 +17288,10 @@
       <c r="DW26">
         <v>54</v>
       </c>
-      <c r="DX26">
-        <v>16669</v>
-      </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -17436,7 +17354,7 @@
         <v>177</v>
       </c>
       <c r="V27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W27">
         <v>138</v>
@@ -17753,19 +17671,16 @@
       <c r="DW27">
         <v>91</v>
       </c>
-      <c r="DX27">
-        <v>13918</v>
-      </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B28">
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28">
         <v>156</v>
@@ -18139,14 +18054,8 @@
       <c r="DW28">
         <v>114</v>
       </c>
-      <c r="DX28">
-        <v>12410</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:DX28">
-    <sortCondition descending="1" ref="DX2:DX28"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
